--- a/ig/nr-update-sas/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/ig/nr-update-sas/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T17:23:22+00:00</t>
+    <t>2023-11-02T17:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-sas/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/ig/nr-update-sas/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T17:28:35+00:00</t>
+    <t>2023-11-08T10:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
